--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/ILLINOIS_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/ILLINOIS_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1872"/>
+  <dimension ref="A1:D1866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C35">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C39">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C47">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C52">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C76">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C84">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C122">
@@ -2011,7 +2011,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C125">
@@ -2219,7 +2219,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C141">
@@ -2575,7 +2575,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C168">
@@ -2775,7 +2775,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C183">
@@ -2801,7 +2801,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C204">
@@ -3240,7 +3240,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C218">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C222">
@@ -3383,7 +3383,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C229">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C230">
@@ -3409,7 +3409,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C231">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C232">
@@ -3552,12 +3552,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C242">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C247">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C253">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C260">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C265">
@@ -3947,7 +3947,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C272">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C280">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C281">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C296">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C307">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C308">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C309">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C311">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C322">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C323">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C336">
@@ -4857,7 +4857,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C342">
@@ -4870,7 +4870,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C343">
@@ -4883,7 +4883,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C344">
@@ -4896,7 +4896,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C345">
@@ -5070,7 +5070,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C358">
@@ -5083,7 +5083,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C359">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C360">
@@ -5200,7 +5200,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C368">
@@ -5252,7 +5252,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C372">
@@ -5356,7 +5356,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C380">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C384">
@@ -5434,7 +5434,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C386">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C388">
@@ -5473,7 +5473,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C389">
@@ -5499,7 +5499,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C391">
@@ -5564,7 +5564,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C396">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C402">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C406">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C411">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C413">
@@ -5803,14 +5803,14 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C414">
         <v>63</v>
       </c>
       <c r="D414">
-        <v>0.0009114055899542851</v>
+        <v>0.0009114055899542852</v>
       </c>
     </row>
     <row r="415">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C418">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C419">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C420">
@@ -5927,7 +5927,7 @@
         <v>66</v>
       </c>
       <c r="D423">
-        <v>0.0009548058561425843</v>
+        <v>0.0009548058561425844</v>
       </c>
     </row>
     <row r="424">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C425">
@@ -5959,7 +5959,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C426">
@@ -6011,7 +6011,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C430">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C431">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C437">
@@ -6115,7 +6115,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C438">
@@ -6141,7 +6141,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C440">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C441">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C443">
@@ -6219,7 +6219,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C446">
@@ -6388,7 +6388,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C459">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C461">
@@ -6440,7 +6440,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C463">
@@ -6466,7 +6466,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C465">
@@ -6518,7 +6518,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C469">
@@ -6531,7 +6531,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C470">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C482">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C489">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C490">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C496">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C501">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C504">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C507">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C514">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C515">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C516">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C518">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C519">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C520">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C523">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C529">
@@ -7316,7 +7316,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C530">
@@ -7368,7 +7368,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C534">
@@ -7394,7 +7394,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C536">
@@ -7407,7 +7407,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C537">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C540">
@@ -7563,7 +7563,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C549">
@@ -7576,7 +7576,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C550">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C551">
@@ -7641,7 +7641,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C555">
@@ -7654,7 +7654,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C556">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C562">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C567">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C570">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C572">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C578">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C584">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C585">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C593">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C600">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C601">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C602">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C606">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C612">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C613">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C621">
@@ -8563,13 +8563,13 @@
         <v>63</v>
       </c>
       <c r="D625">
-        <v>0.0009114055899542851</v>
+        <v>0.0009114055899542852</v>
       </c>
     </row>
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C626">
@@ -8582,7 +8582,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C627">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C629">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C630">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C633">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C635">
@@ -8699,7 +8699,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C636">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C637">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C638">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C641">
@@ -8777,7 +8777,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C642">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C645">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C649">
@@ -8881,7 +8881,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C650">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C653">
@@ -8933,7 +8933,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C654">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C667">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C668">
@@ -9128,7 +9128,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C669">
@@ -9193,7 +9193,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C674">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C675">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C678">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C679">
@@ -9271,7 +9271,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C680">
@@ -9614,7 +9614,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C706">
@@ -10498,7 +10498,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C774">
@@ -10841,7 +10841,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C800">
@@ -10945,7 +10945,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C808">
@@ -10997,7 +10997,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C812">
@@ -11075,7 +11075,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C818">
@@ -11088,7 +11088,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C819">
@@ -11192,7 +11192,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C827">
@@ -11249,7 +11249,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C831">
@@ -11262,7 +11262,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C832">
@@ -11314,7 +11314,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C836">
@@ -11405,7 +11405,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C843">
@@ -11451,7 +11451,7 @@
         <v>63</v>
       </c>
       <c r="D846">
-        <v>0.0009114055899542851</v>
+        <v>0.0009114055899542852</v>
       </c>
     </row>
     <row r="847">
@@ -11618,7 +11618,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C859">
@@ -11774,7 +11774,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C871">
@@ -11865,7 +11865,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C878">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C886">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C893">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C898">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C900">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C902">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C904">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C909">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C910">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C911">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C913">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C914">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C915">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C916">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C918">
@@ -12416,7 +12416,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C920">
@@ -12429,7 +12429,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C921">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C930">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C931">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C934">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C937">
@@ -12663,7 +12663,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C939">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C940">
@@ -12689,7 +12689,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C941">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C943">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C944">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C946">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C951">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C963">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C965">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C978">
@@ -13209,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C981">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C986">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1010">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1020">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1021">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1055">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1069">
@@ -14405,7 +14405,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1073">
@@ -14600,7 +14600,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1088">
@@ -14613,7 +14613,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1089">
@@ -14730,7 +14730,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1098">
@@ -14834,7 +14834,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1106">
@@ -14873,7 +14873,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1109">
@@ -14938,7 +14938,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1114">
@@ -15120,7 +15120,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1128">
@@ -15718,7 +15718,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1174">
@@ -15887,7 +15887,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1187">
@@ -15900,7 +15900,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1188">
@@ -15913,7 +15913,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1189">
@@ -15926,7 +15926,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1190">
@@ -15952,7 +15952,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1192">
@@ -15965,7 +15965,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1193">
@@ -15978,7 +15978,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1194">
@@ -15991,7 +15991,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1195">
@@ -16030,7 +16030,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1198">
@@ -16043,7 +16043,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1199">
@@ -16056,7 +16056,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1200">
@@ -16069,20 +16069,20 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1201">
         <v>66</v>
       </c>
       <c r="D1201">
-        <v>0.0009548058561425843</v>
+        <v>0.0009548058561425844</v>
       </c>
     </row>
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1202">
@@ -16121,7 +16121,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1205">
@@ -16134,7 +16134,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1206">
@@ -16147,7 +16147,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1207">
@@ -16173,7 +16173,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1209">
@@ -16199,7 +16199,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1211">
@@ -16516,7 +16516,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1235">
@@ -16568,7 +16568,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1239">
@@ -16685,7 +16685,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1248">
@@ -16841,7 +16841,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1260">
@@ -16854,7 +16854,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1261">
@@ -17036,7 +17036,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1275">
@@ -17049,7 +17049,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1276">
@@ -17101,7 +17101,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1280">
@@ -17127,7 +17127,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1282">
@@ -17166,7 +17166,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1285">
@@ -17283,7 +17283,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1294">
@@ -17296,7 +17296,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1295">
@@ -17426,7 +17426,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1305">
@@ -17686,7 +17686,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1325">
@@ -17738,7 +17738,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1329">
@@ -17751,7 +17751,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1330">
@@ -17842,7 +17842,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1337">
@@ -17933,7 +17933,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1344">
@@ -17946,7 +17946,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1345">
@@ -17959,7 +17959,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1346">
@@ -18024,7 +18024,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1351">
@@ -18050,7 +18050,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1353">
@@ -18063,7 +18063,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1354">
@@ -18128,7 +18128,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1359">
@@ -18336,7 +18336,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1375">
@@ -18401,7 +18401,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1380">
@@ -18479,7 +18479,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1386">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1394">
@@ -18614,7 +18614,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1396">
@@ -18692,7 +18692,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1402">
@@ -18705,7 +18705,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1403">
@@ -18744,7 +18744,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1406">
@@ -18783,7 +18783,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1409">
@@ -18949,7 +18949,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1421">
@@ -18962,7 +18962,7 @@
     <row r="1422">
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1422">
@@ -19027,7 +19027,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1427">
@@ -19053,7 +19053,7 @@
     <row r="1429">
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1429">
@@ -19183,7 +19183,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1439">
@@ -19261,7 +19261,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1445">
@@ -19339,7 +19339,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1451">
@@ -19365,7 +19365,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1453">
@@ -19456,7 +19456,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1460">
@@ -19508,7 +19508,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1464">
@@ -19521,7 +19521,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1465">
@@ -19534,7 +19534,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1466">
@@ -19547,7 +19547,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1467">
@@ -19560,7 +19560,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1468">
@@ -20090,7 +20090,7 @@
     <row r="1508">
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1508">
@@ -20316,7 +20316,7 @@
     <row r="1525">
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1525">
@@ -20737,7 +20737,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1557">
@@ -20846,7 +20846,7 @@
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1565">
@@ -20872,7 +20872,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1567">
@@ -20885,7 +20885,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1568">
@@ -20950,7 +20950,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1573">
@@ -21041,7 +21041,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1580">
@@ -21067,7 +21067,7 @@
     <row r="1582">
       <c r="B1582" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1582">
@@ -21080,7 +21080,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1583">
@@ -21119,7 +21119,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1586">
@@ -21171,7 +21171,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1590">
@@ -21184,7 +21184,7 @@
     <row r="1591">
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1591">
@@ -21275,7 +21275,7 @@
     <row r="1598">
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1598">
@@ -21314,7 +21314,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1601">
@@ -21592,7 +21592,7 @@
     <row r="1622">
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1622">
@@ -21631,7 +21631,7 @@
     <row r="1625">
       <c r="B1625" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1625">
@@ -21761,7 +21761,7 @@
     <row r="1635">
       <c r="B1635" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1635">
@@ -21826,7 +21826,7 @@
     <row r="1640">
       <c r="B1640" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1640">
@@ -21852,7 +21852,7 @@
     <row r="1642">
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1642">
@@ -22073,7 +22073,7 @@
     <row r="1659">
       <c r="B1659" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1659">
@@ -22086,7 +22086,7 @@
     <row r="1660">
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1660">
@@ -22294,7 +22294,7 @@
     <row r="1676">
       <c r="B1676" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1676">
@@ -22307,7 +22307,7 @@
     <row r="1677">
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1677">
@@ -22320,7 +22320,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1678">
@@ -22359,7 +22359,7 @@
     <row r="1681">
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1681">
@@ -22372,7 +22372,7 @@
     <row r="1682">
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1682">
@@ -22385,7 +22385,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1683">
@@ -22528,7 +22528,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1694">
@@ -22567,7 +22567,7 @@
     <row r="1697">
       <c r="B1697" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1697">
@@ -22606,7 +22606,7 @@
     <row r="1700">
       <c r="B1700" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1700">
@@ -22619,7 +22619,7 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1701">
@@ -22684,7 +22684,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1706">
@@ -22710,7 +22710,7 @@
     <row r="1708">
       <c r="B1708" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1708">
@@ -22762,7 +22762,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1712">
@@ -22788,7 +22788,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1714">
@@ -22905,7 +22905,7 @@
     <row r="1723">
       <c r="B1723" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1723">
@@ -22957,7 +22957,7 @@
     <row r="1727">
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1727">
@@ -22970,7 +22970,7 @@
     <row r="1728">
       <c r="B1728" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1728">
@@ -23009,7 +23009,7 @@
     <row r="1731">
       <c r="B1731" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1731">
@@ -23139,7 +23139,7 @@
     <row r="1741">
       <c r="B1741" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1741">
@@ -23178,7 +23178,7 @@
     <row r="1744">
       <c r="B1744" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1744">
@@ -23269,7 +23269,7 @@
     <row r="1751">
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1751">
@@ -23529,7 +23529,7 @@
     <row r="1771">
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1771">
@@ -23711,14 +23711,14 @@
     <row r="1785">
       <c r="B1785" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1785">
         <v>63</v>
       </c>
       <c r="D1785">
-        <v>0.0009114055899542851</v>
+        <v>0.0009114055899542852</v>
       </c>
     </row>
     <row r="1786">
@@ -23841,7 +23841,7 @@
     <row r="1795">
       <c r="B1795" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1795">
@@ -23854,7 +23854,7 @@
     <row r="1796">
       <c r="B1796" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1796">
@@ -24111,7 +24111,7 @@
     <row r="1815">
       <c r="B1815" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1815">
@@ -24137,7 +24137,7 @@
     <row r="1817">
       <c r="B1817" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1817">
@@ -24163,7 +24163,7 @@
     <row r="1819">
       <c r="B1819" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1819">
@@ -24293,7 +24293,7 @@
     <row r="1829">
       <c r="B1829" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1829">
@@ -24371,7 +24371,7 @@
     <row r="1835">
       <c r="B1835" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1835">
@@ -24436,7 +24436,7 @@
     <row r="1840">
       <c r="B1840" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1840">
@@ -24449,7 +24449,7 @@
     <row r="1841">
       <c r="B1841" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1841">
@@ -24462,7 +24462,7 @@
     <row r="1842">
       <c r="B1842" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1842">
@@ -24605,7 +24605,7 @@
     <row r="1853">
       <c r="B1853" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1853">
@@ -24618,7 +24618,7 @@
     <row r="1854">
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1854">
@@ -24644,7 +24644,7 @@
     <row r="1856">
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1856">
@@ -24683,7 +24683,7 @@
     <row r="1859">
       <c r="B1859" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1859">
@@ -24782,41 +24782,6 @@
       </c>
       <c r="D1866">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
